--- a/Сертификация - Литвинова/Lab2.xlsx
+++ b/Сертификация - Литвинова/Lab2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFile\VKI\Сертификация - Литвинова\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58B632D-84AD-4F0B-9ED8-C800566B5226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84148AE1-1307-457D-AF8C-88F563A3E9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>№</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Администратор системы</t>
   </si>
   <si>
-    <t>Менеджер отеля</t>
-  </si>
-  <si>
     <t>Оставление отзывов об отеле</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>18</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -230,6 +224,15 @@
   </si>
   <si>
     <t>Быстрый вызов техподдержки при проблемах с бронированием, системой и тех.проблемами</t>
+  </si>
+  <si>
+    <t>Менеджер отеля(владелец жилья)</t>
+  </si>
+  <si>
+    <t>Чат с клиентом</t>
+  </si>
+  <si>
+    <t>Общение с клиентами, которые выбирают жилье.</t>
   </si>
 </sst>
 </file>
@@ -705,29 +708,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -754,17 +738,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,11 +987,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -997,29 +1000,29 @@
     <col min="2" max="2" width="72.88671875" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="26.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
-    <col min="6" max="6" width="83.6640625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="38.21875" customWidth="1"/>
+    <col min="6" max="6" width="83.6640625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="42" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1027,544 +1030,545 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="27"/>
+        <v>68</v>
+      </c>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="C4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
-        <v>2</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="28" t="s">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
-        <v>3</v>
-      </c>
-      <c r="B5" s="33" t="s">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
-        <v>4</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="C6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="30" t="s">
+      <c r="E6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="28" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>5</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+      <c r="C7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>6</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>8</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>9</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
-        <v>6</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+      <c r="C11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
-        <v>8</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
-        <v>9</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="40" t="s">
+      <c r="C18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="41" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="41" t="s">
+      <c r="C19" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B20" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="43" t="s">
+      <c r="C20" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B21" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="38" t="s">
+      <c r="C26" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>43</v>
-      </c>
+      <c r="A27" s="12"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="18"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="29"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="18"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="29"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="18"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="29"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="18"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="29"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="18"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="29"/>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="C32" s="15"/>
       <c r="D32" s="12"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="29"/>
+      <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="C33" s="15"/>
       <c r="D33" s="12"/>
       <c r="E33" s="16"/>
-      <c r="F33" s="29"/>
+      <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="C34" s="15"/>
       <c r="D34" s="12"/>
       <c r="E34" s="16"/>
-      <c r="F34" s="29"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="29"/>
+      <c r="F34" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
